--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/목록데이터추가(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/목록데이터추가(준비).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section02\02_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936EB3EF-A366-4304-B379-A1B8CEBBB288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39FF10-5867-274B-B513-B0459B750606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="8110" xr2:uid="{C29DF28E-0B42-4FA4-8F8B-781CC72F6233}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16460" windowHeight="16580" activeTab="1" xr2:uid="{C29DF28E-0B42-4FA4-8F8B-781CC72F6233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>분류</t>
   </si>
@@ -87,13 +88,17 @@
   </si>
   <si>
     <t>농산물</t>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,19 +518,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3307CB4F-D711-4269-9C5A-7AC25F51262D}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="3" width="10.58203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,135 +541,221 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B3:D19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D19">
     <sortCondition ref="B6"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A858C91D-1FA0-F446-8FA2-482F62494259}">
+  <dimension ref="B2:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>